--- a/ESPN sports website/IPL/Kolkata Knight Riders/Varun Chakravarthy.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Varun Chakravarthy.xlsx
@@ -480,10 +480,10 @@
         <v>Varun Chakravarthy</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>100.00</v>
+        <v>-</v>
       </c>
       <c r="H3" t="str">
-        <v>Delhi Capitals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I3" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 10, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,10 +515,10 @@
         <v>Varun Chakravarthy</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
@@ -527,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>-</v>
+        <v>100.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Mumbai Indians</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I4" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>May 09, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Capitals won by 44 runs</v>
       </c>
     </row>
     <row r="5">
